--- a/biology/Zoologie/Atractaspis_dahomeyensis/Atractaspis_dahomeyensis.xlsx
+++ b/biology/Zoologie/Atractaspis_dahomeyensis/Atractaspis_dahomeyensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Atractaspis dahomeyensis est une espèce de serpents de la famille des Lamprophiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Atractaspis dahomeyensis est une espèce de serpents de la famille des Lamprophiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 au Bénin ;
 au Burkina Faso ;
 au Cameroun ;
@@ -552,7 +566,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un serpent venimeux.
 </t>
@@ -583,7 +599,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, composé de dahomey et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, Zomai au Dahomey, ancien royaume africain situé au Sud-Est de l'actuel Bénin.
 </t>
@@ -614,7 +632,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Bocage, 1887 : Zoologia Melanges erpetologiques. I. Reptiles et Batraciens du Congo. V. Reptiles et Batraciens de Quissange, Benguella, envoyes par M. J. d'Anchieta. Jornal de sciencias mathematicas, physicas e naturaes / Academia Real das Sciencias de Lisboa, vol. 11, p. 177-211 (texte intégral).</t>
         </is>
